--- a/Joe2.xlsx
+++ b/Joe2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">**Table X. Summary of cost by publication model and index factor**</t>
   </si>
@@ -78,11 +78,11 @@
   </si>
   <si>
     <t xml:space="preserve">fully open access
-N = 2
+N = 6
 </t>
   </si>
   <si>
-    <t xml:space="preserve">40 (36, 43)</t>
+    <t xml:space="preserve">9 (5, 36)</t>
   </si>
   <si>
     <t xml:space="preserve">NA (NA, NA)</t>
@@ -94,143 +94,146 @@
     <t xml:space="preserve">0 (0%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90 (1.10, 4.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 (0.17, 0.78)</t>
+    <t xml:space="preserve">6 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 1.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.17)</t>
   </si>
   <si>
     <t xml:space="preserve">904 (795, 1,012)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access no apc
-N = 22
+N = 63
 </t>
   </si>
   <si>
-    <t xml:space="preserve">18 (7, 30)</t>
+    <t xml:space="preserve">7 (5, 15)</t>
   </si>
   <si>
     <t xml:space="preserve">0 (0, 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">22 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65 (0.30, 1.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (0.08, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520 (114, 779)</t>
+    <t xml:space="preserve">63 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495 (99, 779)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access page fees
-N = 1
+N = 4
 </t>
   </si>
   <si>
-    <t xml:space="preserve">48 (48, 48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 (0.75, 0.75)</t>
+    <t xml:space="preserve">19 (5, 40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.00)</t>
   </si>
   <si>
     <t xml:space="preserve">176 (176, 176)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access with apc
-N = 126
+N = 153
 </t>
   </si>
   <si>
-    <t xml:space="preserve">39 (23, 67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,240 (1,390, 2,990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,245 (1,390, 2,990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,980 (600, 2,750)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,650 (424, 2,650)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,985 (1,081, 2,990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40 (1.40, 3.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54 (0.32, 0.74)</t>
+    <t xml:space="preserve">34 (15, 61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,000 (1,000, 2,825)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,000 (1,000, 2,850)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,900 (600, 2,690)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,500 (400, 2,650)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,878 (1,000, 2,990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10 (0.70, 3.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (0.15, 0.70)</t>
   </si>
   <si>
     <t xml:space="preserve">1,625 (554, 3,997)</t>
   </si>
   <si>
     <t xml:space="preserve">hybrid
-N = 148
+N = 155
 </t>
   </si>
   <si>
-    <t xml:space="preserve">80 (55, 108)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,690 (3,146, 4,140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,690 (3,181, 4,190)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,702 (3,206, 4,190)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,690 (3,000, 4,180)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,900 (3,590, 4,490)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40 (1.75, 3.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57 (0.42, 0.81)</t>
+    <t xml:space="preserve">79 (53, 105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,690 (3,000, 4,140)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,690 (3,000, 4,190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,701 (2,999, 4,190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,690 (2,999, 4,190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,895 (3,580, 4,490)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40 (1.60, 3.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55 (0.39, 0.79)</t>
   </si>
   <si>
     <t xml:space="preserve">3,188 (1,717, 6,046)</t>
   </si>
   <si>
     <t xml:space="preserve">subscription
-N = 3
+N = 8
 </t>
   </si>
   <si>
-    <t xml:space="preserve">62 (59, 104)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30 (1.10, 2.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 (0.37, 0.97)</t>
+    <t xml:space="preserve">18 (6, 61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 1.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00, 0.40)</t>
   </si>
   <si>
     <t xml:space="preserve">1,956 (1,846, 4,079)</t>
@@ -259,6 +262,9 @@
     <t xml:space="preserve">150 (150, 150)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (100%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 (15, 15)</t>
   </si>
   <si>
@@ -314,7 +320,7 @@
     <t xml:space="preserve">7 (6, 11)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58 (1.23, 2.11)</t>
+    <t xml:space="preserve">1.56 (1.17, 2.09)</t>
   </si>
   <si>
     <t xml:space="preserve">6,017 (3,331, 21,989)</t>
@@ -349,7 +355,7 @@
     <t xml:space="preserve">11 (7, 19)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14 (1.33, 3.86)</t>
+    <t xml:space="preserve">2.13 (1.31, 3.70)</t>
   </si>
   <si>
     <t xml:space="preserve">24,507 (7,179, 46,453)</t>
@@ -361,6 +367,9 @@
   </si>
   <si>
     <t xml:space="preserve">361 (217, 505)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">77 (73, 81)</t>
@@ -885,25 +894,25 @@
         <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -920,40 +929,40 @@
         <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -970,40 +979,40 @@
         <v>37</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1020,19 +1029,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>22</v>
@@ -1041,19 +1050,19 @@
         <v>31</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1061,22 +1070,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>23</v>
@@ -1120,19 +1129,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -1141,19 +1150,19 @@
         <v>31</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1161,22 +1170,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>6</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>23</v>
@@ -1220,19 +1229,19 @@
         <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>22</v>
@@ -1241,10 +1250,10 @@
         <v>31</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>22</v>
@@ -1261,22 +1270,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>68</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <v>8</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <v>84</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>3</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>23</v>
@@ -1320,19 +1329,19 @@
         <v>22</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>22</v>
@@ -1341,19 +1350,19 @@
         <v>31</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1361,22 +1370,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F12" s="11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>23</v>
@@ -1417,22 +1426,22 @@
         <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>22</v>
@@ -1441,10 +1450,10 @@
         <v>31</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>31</v>
@@ -1461,22 +1470,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="11" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>23</v>
@@ -1529,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>23</v>
@@ -1550,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="11" t="n">
         <v>0.002</v>
@@ -1576,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>23</v>
@@ -1597,7 +1606,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>23</v>
@@ -1620,10 +1629,10 @@
         <v>38</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>24</v>
@@ -1635,16 +1644,16 @@
         <v>23</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>24</v>
@@ -1670,34 +1679,34 @@
         <v>39</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O18" s="11" t="n">
         <v>0.04</v>
@@ -1717,143 +1726,143 @@
         <v>34</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O19" s="11" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="P19" s="11" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P20" s="11" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>68</v>
+      <c r="D21" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P21" s="12" t="n">
-        <v>0.015</v>
+        <v>23</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">

--- a/Joe2.xlsx
+++ b/Joe2.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">0.00 (0.00, 0.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">904 (795, 1,012)</t>
+    <t xml:space="preserve">0 (0, 795)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access no apc
@@ -126,7 +126,7 @@
     <t xml:space="preserve">0.00 (0.00, 0.08)</t>
   </si>
   <si>
-    <t xml:space="preserve">495 (99, 779)</t>
+    <t xml:space="preserve">0 (0, 139)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access page fees
@@ -146,7 +146,7 @@
     <t xml:space="preserve">0.00 (0.00, 0.00)</t>
   </si>
   <si>
-    <t xml:space="preserve">176 (176, 176)</t>
+    <t xml:space="preserve">0 (0, 88)</t>
   </si>
   <si>
     <t xml:space="preserve">fully open access with apc
@@ -181,7 +181,7 @@
     <t xml:space="preserve">0.45 (0.15, 0.70)</t>
   </si>
   <si>
-    <t xml:space="preserve">1,625 (554, 3,997)</t>
+    <t xml:space="preserve">1,197 (204, 3,376)</t>
   </si>
   <si>
     <t xml:space="preserve">hybrid
@@ -216,7 +216,7 @@
     <t xml:space="preserve">0.55 (0.39, 0.79)</t>
   </si>
   <si>
-    <t xml:space="preserve">3,188 (1,717, 6,046)</t>
+    <t xml:space="preserve">3,024 (1,548, 5,449)</t>
   </si>
   <si>
     <t xml:space="preserve">subscription
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.00 (0.00, 0.40)</t>
   </si>
   <si>
-    <t xml:space="preserve">1,956 (1,846, 4,079)</t>
+    <t xml:space="preserve">0 (0, 1,901)</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
@@ -1766,261 +1766,211 @@
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="11" t="n">
+      <c r="O20" s="12" t="n">
         <v>0.01</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="12" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D21" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <v>27</v>
-      </c>
-      <c r="F21" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>23</v>
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="NA" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:P24"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:P2"/>
   </mergeCells>
